--- a/PageObjectModel-HomeAssignments/Externaldata/testinput.xlsx
+++ b/PageObjectModel-HomeAssignments/Externaldata/testinput.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maven\PageObjectModel-HomeAssignments\Externaldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F18B5C-36A8-46EE-A6D8-9F1E64CA7838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9BA64-9BDC-402B-B3BE-E99BACE03F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{A2181E76-42C2-43FD-A5BE-2BBAAE6E82C8}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="1" xr2:uid="{A2181E76-42C2-43FD-A5BE-2BBAAE6E82C8}"/>
   </bookViews>
   <sheets>
     <sheet name="dataforcreatelead" sheetId="1" r:id="rId1"/>
     <sheet name="datafordeletelead" sheetId="2" r:id="rId2"/>
+    <sheet name="dataforeditlead" sheetId="3" r:id="rId3"/>
+    <sheet name="dataforduplicatelead" sheetId="4" r:id="rId4"/>
+    <sheet name="dataformergelead" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Companyname</t>
   </si>
@@ -50,6 +53,24 @@
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>Newcompanyname</t>
+  </si>
+  <si>
+    <t>Alight</t>
+  </si>
+  <si>
+    <t>Phonenumber</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>999</t>
   </si>
 </sst>
 </file>
@@ -442,7 +463,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +475,94 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E211524-5D9F-45A4-ACE3-A5C8514956DC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB407338-43C1-4A5E-8BDB-E28DC038EF1C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C9BB01-1516-4460-A416-6263523D00C2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
